--- a/TestsSaveExcel/AZ_Az_Couleurs.xlsx
+++ b/TestsSaveExcel/AZ_Az_Couleurs.xlsx
@@ -28,7 +28,7 @@
     <x:t>Nom :</x:t>
   </x:si>
   <x:si>
-    <x:t>Az Az</x:t>
+    <x:t>az az</x:t>
   </x:si>
   <x:si>
     <x:t>Genre :</x:t>
@@ -131,12 +131,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:numFmts count="5">
+  <x:numFmts count="7">
     <x:numFmt numFmtId="164" formatCode="General"/>
-    <x:numFmt numFmtId="165" formatCode="@"/>
-    <x:numFmt numFmtId="166" formatCode="0"/>
-    <x:numFmt numFmtId="167" formatCode="0.00"/>
-    <x:numFmt numFmtId="168" formatCode="0.0"/>
+    <x:numFmt numFmtId="165" formatCode="DD/MM/YY"/>
+    <x:numFmt numFmtId="166" formatCode="HH:MM:SS"/>
+    <x:numFmt numFmtId="167" formatCode="@"/>
+    <x:numFmt numFmtId="168" formatCode="0"/>
+    <x:numFmt numFmtId="169" formatCode="0.00"/>
+    <x:numFmt numFmtId="170" formatCode="0.0"/>
   </x:numFmts>
   <x:fonts count="7">
     <x:font>
@@ -639,7 +641,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="87">
+  <x:cellStyleXfs count="89">
     <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <x:protection locked="true" hidden="false"/>
@@ -693,6 +695,18 @@
     <x:xf numFmtId="164" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="165" fontId="0" fillId="4" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="166" fontId="0" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="166" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="164" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -708,43 +722,43 @@
     <x:xf numFmtId="164" fontId="5" fillId="2" borderId="8" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="166" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="167" fontId="0" fillId="0" borderId="11" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="5" borderId="9" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="5" borderId="10" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="166" fontId="0" fillId="5" borderId="10" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="167" fontId="0" fillId="5" borderId="11" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="5" borderId="12" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="5" borderId="13" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="166" fontId="0" fillId="5" borderId="13" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="167" fontId="0" fillId="5" borderId="14" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="167" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="167" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="168" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="169" fontId="0" fillId="0" borderId="11" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="167" fontId="0" fillId="5" borderId="9" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="167" fontId="0" fillId="5" borderId="10" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="167" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="168" fontId="0" fillId="5" borderId="10" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="169" fontId="0" fillId="5" borderId="11" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="167" fontId="0" fillId="5" borderId="12" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="167" fontId="0" fillId="5" borderId="13" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="168" fontId="0" fillId="5" borderId="13" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="169" fontId="0" fillId="5" borderId="14" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="164" fontId="6" fillId="2" borderId="29" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -798,13 +812,13 @@
     <x:xf numFmtId="164" fontId="5" fillId="2" borderId="20" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="2" borderId="37" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="168" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="168" fontId="0" fillId="0" borderId="11" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="167" fontId="0" fillId="2" borderId="37" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="170" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="170" fontId="0" fillId="0" borderId="11" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="164" fontId="0" fillId="0" borderId="21" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -813,16 +827,13 @@
     <x:xf numFmtId="164" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="11" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="2" borderId="38" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="168" fontId="0" fillId="5" borderId="10" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="168" fontId="0" fillId="5" borderId="11" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="167" fontId="0" fillId="2" borderId="38" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="170" fontId="0" fillId="5" borderId="10" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="170" fontId="0" fillId="5" borderId="11" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="164" fontId="0" fillId="5" borderId="21" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -831,19 +842,16 @@
     <x:xf numFmtId="164" fontId="0" fillId="5" borderId="10" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="164" fontId="0" fillId="5" borderId="11" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="2" borderId="39" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="166" fontId="0" fillId="0" borderId="13" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="167" fontId="0" fillId="2" borderId="39" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="168" fontId="0" fillId="0" borderId="13" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="168" fontId="0" fillId="0" borderId="14" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="170" fontId="0" fillId="0" borderId="13" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="170" fontId="0" fillId="0" borderId="14" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="164" fontId="0" fillId="0" borderId="22" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -852,7 +860,7 @@
     <x:xf numFmtId="164" fontId="0" fillId="0" borderId="13" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="14" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="169" fontId="0" fillId="0" borderId="14" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="164" fontId="0" fillId="3" borderId="23" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -865,7 +873,7 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="124">
+  <x:cellXfs count="127">
     <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <x:protection locked="true" hidden="false"/>
@@ -902,6 +910,14 @@
       <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <x:protection locked="true" hidden="false"/>
     </x:xf>
+    <x:xf numFmtId="165" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <x:protection locked="true" hidden="false"/>
+    </x:xf>
+    <x:xf numFmtId="166" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <x:protection locked="true" hidden="false"/>
+    </x:xf>
     <x:xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <x:protection locked="true" hidden="false"/>
@@ -930,55 +946,55 @@
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <x:protection locked="true" hidden="false"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <x:protection locked="true" hidden="false"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <x:protection locked="true" hidden="false"/>
-    </x:xf>
-    <x:xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <x:protection locked="true" hidden="false"/>
-    </x:xf>
-    <x:xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <x:protection locked="true" hidden="false"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <x:protection locked="true" hidden="false"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <x:protection locked="true" hidden="false"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <x:protection locked="true" hidden="false"/>
-    </x:xf>
-    <x:xf numFmtId="166" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <x:protection locked="true" hidden="false"/>
-    </x:xf>
-    <x:xf numFmtId="167" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <x:protection locked="true" hidden="false"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <x:protection locked="true" hidden="false"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <x:protection locked="true" hidden="false"/>
-    </x:xf>
-    <x:xf numFmtId="166" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <x:protection locked="true" hidden="false"/>
-    </x:xf>
-    <x:xf numFmtId="167" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <x:xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <x:protection locked="true" hidden="false"/>
+    </x:xf>
+    <x:xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <x:protection locked="true" hidden="false"/>
+    </x:xf>
+    <x:xf numFmtId="168" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <x:protection locked="true" hidden="false"/>
+    </x:xf>
+    <x:xf numFmtId="169" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <x:protection locked="true" hidden="false"/>
+    </x:xf>
+    <x:xf numFmtId="167" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <x:protection locked="true" hidden="false"/>
+    </x:xf>
+    <x:xf numFmtId="167" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <x:protection locked="true" hidden="false"/>
+    </x:xf>
+    <x:xf numFmtId="167" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <x:protection locked="true" hidden="false"/>
+    </x:xf>
+    <x:xf numFmtId="168" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <x:protection locked="true" hidden="false"/>
+    </x:xf>
+    <x:xf numFmtId="169" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <x:protection locked="true" hidden="false"/>
+    </x:xf>
+    <x:xf numFmtId="167" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <x:protection locked="true" hidden="false"/>
+    </x:xf>
+    <x:xf numFmtId="167" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <x:protection locked="true" hidden="false"/>
+    </x:xf>
+    <x:xf numFmtId="168" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <x:protection locked="true" hidden="false"/>
+    </x:xf>
+    <x:xf numFmtId="169" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <x:protection locked="true" hidden="false"/>
     </x:xf>
@@ -1038,15 +1054,15 @@
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <x:protection locked="true" hidden="false"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <x:xf numFmtId="167" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <x:protection locked="true" hidden="false"/>
     </x:xf>
-    <x:xf numFmtId="168" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <x:protection locked="true" hidden="false"/>
-    </x:xf>
-    <x:xf numFmtId="168" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <x:xf numFmtId="170" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <x:protection locked="true" hidden="false"/>
+    </x:xf>
+    <x:xf numFmtId="170" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <x:protection locked="true" hidden="false"/>
     </x:xf>
@@ -1062,15 +1078,11 @@
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <x:protection locked="true" hidden="false"/>
     </x:xf>
-    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <x:protection locked="true" hidden="false"/>
-    </x:xf>
-    <x:xf numFmtId="168" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <x:protection locked="true" hidden="false"/>
-    </x:xf>
-    <x:xf numFmtId="168" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <x:xf numFmtId="170" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <x:protection locked="true" hidden="false"/>
+    </x:xf>
+    <x:xf numFmtId="170" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <x:protection locked="true" hidden="false"/>
     </x:xf>
@@ -1082,19 +1094,15 @@
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <x:protection locked="true" hidden="false"/>
     </x:xf>
-    <x:xf numFmtId="164" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <x:protection locked="true" hidden="false"/>
-    </x:xf>
-    <x:xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <x:protection locked="true" hidden="false"/>
-    </x:xf>
     <x:xf numFmtId="168" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <x:protection locked="true" hidden="false"/>
     </x:xf>
-    <x:xf numFmtId="168" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <x:xf numFmtId="170" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <x:protection locked="true" hidden="false"/>
+    </x:xf>
+    <x:xf numFmtId="170" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <x:protection locked="true" hidden="false"/>
     </x:xf>
@@ -1110,7 +1118,7 @@
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <x:protection locked="true" hidden="false"/>
     </x:xf>
-    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <x:xf numFmtId="169" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <x:protection locked="true" hidden="false"/>
     </x:xf>
@@ -1178,6 +1186,22 @@
       <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="166" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -1198,39 +1222,39 @@
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="167" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="167" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="167" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="166" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="168" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="167" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="169" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="167" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="167" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="166" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="168" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="167" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="169" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -1314,7 +1338,7 @@
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="167" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -1322,15 +1346,15 @@
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="167" fontId="0" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="168" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="170" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="168" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="170" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -1342,11 +1366,7 @@
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="164" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="167" fontId="0" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -1726,7 +1746,7 @@
   <x:dimension ref="A1:R1048576"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" defaultGridColor="true" topLeftCell="A1" colorId="64" workbookViewId="0">
-      <x:selection activeCell="A13" sqref="A13"/>
+      <x:selection activeCell="P13" sqref="P13"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" zeroHeight="false"/>
@@ -1742,7 +1762,7 @@
     <x:col min="9" max="9" width="1.42" style="65" customWidth="1"/>
     <x:col min="10" max="10" width="11.99" style="65" customWidth="1"/>
     <x:col min="11" max="11" width="7.41" style="65" customWidth="1"/>
-    <x:col min="12" max="12" width="7.8" style="65" customWidth="1"/>
+    <x:col min="12" max="12" width="7.78" style="65" customWidth="1"/>
     <x:col min="13" max="1025" width="8.71" style="65" customWidth="1"/>
   </x:cols>
   <x:sheetData>
@@ -1840,7 +1860,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="76" t="n">
-        <x:v>33</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C6" s="76" t="s"/>
       <x:c r="D6" s="76" t="s"/>
@@ -1858,53 +1878,53 @@
       <x:c r="A7" s="72" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="B7" s="73">
-        <x:v>43852</x:v>
-      </x:c>
-      <x:c r="C7" s="73" t="s"/>
-      <x:c r="D7" s="73" t="s"/>
-      <x:c r="E7" s="73" t="s"/>
-      <x:c r="F7" s="73" t="s"/>
-      <x:c r="G7" s="73" t="s"/>
-      <x:c r="H7" s="73" t="s"/>
-      <x:c r="I7" s="73" t="s"/>
-      <x:c r="J7" s="73" t="s"/>
-      <x:c r="K7" s="73" t="s"/>
-      <x:c r="L7" s="73" t="s"/>
-      <x:c r="M7" s="74" t="s"/>
+      <x:c r="B7" s="78">
+        <x:v>43872</x:v>
+      </x:c>
+      <x:c r="C7" s="78" t="s"/>
+      <x:c r="D7" s="78" t="s"/>
+      <x:c r="E7" s="78" t="s"/>
+      <x:c r="F7" s="78" t="s"/>
+      <x:c r="G7" s="78" t="s"/>
+      <x:c r="H7" s="78" t="s"/>
+      <x:c r="I7" s="78" t="s"/>
+      <x:c r="J7" s="78" t="s"/>
+      <x:c r="K7" s="78" t="s"/>
+      <x:c r="L7" s="78" t="s"/>
+      <x:c r="M7" s="79" t="s"/>
     </x:row>
     <x:row r="8" spans="1:1025" s="65" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
       <x:c r="A8" s="75" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B8" s="76" t="n">
-        <x:v>0.666296296296296</x:v>
-      </x:c>
-      <x:c r="C8" s="76" t="s"/>
-      <x:c r="D8" s="76" t="s"/>
-      <x:c r="E8" s="76" t="s"/>
-      <x:c r="F8" s="76" t="s"/>
-      <x:c r="G8" s="76" t="s"/>
-      <x:c r="H8" s="76" t="s"/>
-      <x:c r="I8" s="76" t="s"/>
-      <x:c r="J8" s="76" t="s"/>
-      <x:c r="K8" s="76" t="s"/>
-      <x:c r="L8" s="76" t="s"/>
-      <x:c r="M8" s="77" t="s"/>
+      <x:c r="B8" s="80" t="n">
+        <x:v>0.60994212962963</x:v>
+      </x:c>
+      <x:c r="C8" s="80" t="s"/>
+      <x:c r="D8" s="80" t="s"/>
+      <x:c r="E8" s="80" t="s"/>
+      <x:c r="F8" s="80" t="s"/>
+      <x:c r="G8" s="80" t="s"/>
+      <x:c r="H8" s="80" t="s"/>
+      <x:c r="I8" s="80" t="s"/>
+      <x:c r="J8" s="80" t="s"/>
+      <x:c r="K8" s="80" t="s"/>
+      <x:c r="L8" s="80" t="s"/>
+      <x:c r="M8" s="81" t="s"/>
     </x:row>
     <x:row r="9" spans="1:1025" s="65" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
-      <x:c r="A9" s="78" t="s"/>
-      <x:c r="B9" s="79" t="s"/>
-      <x:c r="C9" s="79" t="s"/>
-      <x:c r="D9" s="79" t="s"/>
-      <x:c r="E9" s="79" t="s"/>
-      <x:c r="F9" s="79" t="s"/>
-      <x:c r="G9" s="79" t="s"/>
-      <x:c r="H9" s="79" t="s"/>
-      <x:c r="I9" s="79" t="s"/>
-      <x:c r="J9" s="79" t="s"/>
-      <x:c r="K9" s="79" t="s"/>
-      <x:c r="L9" s="79" t="s"/>
+      <x:c r="A9" s="82" t="s"/>
+      <x:c r="B9" s="83" t="s"/>
+      <x:c r="C9" s="83" t="s"/>
+      <x:c r="D9" s="83" t="s"/>
+      <x:c r="E9" s="83" t="s"/>
+      <x:c r="F9" s="83" t="s"/>
+      <x:c r="G9" s="83" t="s"/>
+      <x:c r="H9" s="83" t="s"/>
+      <x:c r="I9" s="83" t="s"/>
+      <x:c r="J9" s="83" t="s"/>
+      <x:c r="K9" s="83" t="s"/>
+      <x:c r="L9" s="83" t="s"/>
       <x:c r="M9" s="71" t="s"/>
       <x:c r="N9" s="0" t="s"/>
       <x:c r="O9" s="0" t="s"/>
@@ -1947,28 +1967,28 @@
       <x:c r="M11" s="71" t="s"/>
     </x:row>
     <x:row r="12" spans="1:1025" s="65" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
-      <x:c r="A12" s="80" t="s">
+      <x:c r="A12" s="84" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="B12" s="81" t="s">
+      <x:c r="B12" s="85" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="C12" s="81" t="s">
+      <x:c r="C12" s="85" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="D12" s="81" t="s">
+      <x:c r="D12" s="85" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="E12" s="81" t="s">
+      <x:c r="E12" s="85" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="F12" s="81" t="s">
+      <x:c r="F12" s="85" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="G12" s="81" t="s">
+      <x:c r="G12" s="85" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="H12" s="82" t="s">
+      <x:c r="H12" s="86" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="I12" s="70" t="s"/>
@@ -1978,45 +1998,46 @@
       <x:c r="M12" s="71" t="s"/>
     </x:row>
     <x:row r="13" spans="1:1025" s="65" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
-      <x:c r="A13" s="16" t="s">
+      <x:c r="A13" s="18" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="B13" s="17" t="s">
+      <x:c r="B13" s="19" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C13" s="17" t="s">
+      <x:c r="C13" s="19" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="D13" s="17" t="s">
+      <x:c r="D13" s="19" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="E13" s="17" t="s">
+      <x:c r="E13" s="19" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="F13" s="18" t="n">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="G13" s="18" t="n">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="H13" s="19" t="n">
-        <x:v>58.33</x:v>
+      <x:c r="F13" s="20" t="n">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G13" s="20" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H13" s="21" t="n">
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I13" s="70" t="s"/>
       <x:c r="J13" s="70" t="s"/>
       <x:c r="K13" s="70" t="s"/>
       <x:c r="L13" s="70" t="s"/>
       <x:c r="M13" s="71" t="s"/>
+      <x:c r="P13" s="65" t="s"/>
     </x:row>
     <x:row r="14" spans="1:1025" s="65" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
-      <x:c r="A14" s="83" t="s"/>
-      <x:c r="B14" s="84" t="s"/>
-      <x:c r="C14" s="85" t="s"/>
-      <x:c r="D14" s="84" t="s"/>
-      <x:c r="E14" s="84" t="s"/>
-      <x:c r="F14" s="86" t="s"/>
-      <x:c r="G14" s="86" t="s"/>
-      <x:c r="H14" s="87" t="s"/>
+      <x:c r="A14" s="87" t="s"/>
+      <x:c r="B14" s="88" t="s"/>
+      <x:c r="C14" s="89" t="s"/>
+      <x:c r="D14" s="88" t="s"/>
+      <x:c r="E14" s="88" t="s"/>
+      <x:c r="F14" s="90" t="s"/>
+      <x:c r="G14" s="90" t="s"/>
+      <x:c r="H14" s="91" t="s"/>
       <x:c r="I14" s="70" t="s"/>
       <x:c r="J14" s="70" t="s"/>
       <x:c r="K14" s="70" t="s"/>
@@ -2024,14 +2045,14 @@
       <x:c r="M14" s="71" t="s"/>
     </x:row>
     <x:row r="15" spans="1:1025" s="65" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
-      <x:c r="A15" s="16" t="s"/>
-      <x:c r="B15" s="17" t="s"/>
-      <x:c r="C15" s="17" t="s"/>
-      <x:c r="D15" s="17" t="s"/>
-      <x:c r="E15" s="17" t="s"/>
-      <x:c r="F15" s="18" t="s"/>
-      <x:c r="G15" s="18" t="s"/>
-      <x:c r="H15" s="19" t="s"/>
+      <x:c r="A15" s="18" t="s"/>
+      <x:c r="B15" s="19" t="s"/>
+      <x:c r="C15" s="19" t="s"/>
+      <x:c r="D15" s="19" t="s"/>
+      <x:c r="E15" s="19" t="s"/>
+      <x:c r="F15" s="20" t="s"/>
+      <x:c r="G15" s="20" t="s"/>
+      <x:c r="H15" s="21" t="s"/>
       <x:c r="I15" s="70" t="s"/>
       <x:c r="J15" s="70" t="s"/>
       <x:c r="K15" s="70" t="s"/>
@@ -2039,14 +2060,14 @@
       <x:c r="M15" s="71" t="s"/>
     </x:row>
     <x:row r="16" spans="1:1025" s="65" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
-      <x:c r="A16" s="83" t="s"/>
-      <x:c r="B16" s="84" t="s"/>
-      <x:c r="C16" s="84" t="s"/>
-      <x:c r="D16" s="84" t="s"/>
-      <x:c r="E16" s="84" t="s"/>
-      <x:c r="F16" s="86" t="s"/>
-      <x:c r="G16" s="86" t="s"/>
-      <x:c r="H16" s="87" t="s"/>
+      <x:c r="A16" s="87" t="s"/>
+      <x:c r="B16" s="88" t="s"/>
+      <x:c r="C16" s="88" t="s"/>
+      <x:c r="D16" s="88" t="s"/>
+      <x:c r="E16" s="88" t="s"/>
+      <x:c r="F16" s="90" t="s"/>
+      <x:c r="G16" s="90" t="s"/>
+      <x:c r="H16" s="91" t="s"/>
       <x:c r="I16" s="70" t="s"/>
       <x:c r="J16" s="70" t="s"/>
       <x:c r="K16" s="70" t="s"/>
@@ -2054,14 +2075,14 @@
       <x:c r="M16" s="71" t="s"/>
     </x:row>
     <x:row r="17" spans="1:1025" s="65" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
-      <x:c r="A17" s="16" t="s"/>
-      <x:c r="B17" s="17" t="s"/>
-      <x:c r="C17" s="17" t="s"/>
-      <x:c r="D17" s="17" t="s"/>
-      <x:c r="E17" s="17" t="s"/>
-      <x:c r="F17" s="18" t="s"/>
-      <x:c r="G17" s="18" t="s"/>
-      <x:c r="H17" s="19" t="s"/>
+      <x:c r="A17" s="18" t="s"/>
+      <x:c r="B17" s="19" t="s"/>
+      <x:c r="C17" s="19" t="s"/>
+      <x:c r="D17" s="19" t="s"/>
+      <x:c r="E17" s="19" t="s"/>
+      <x:c r="F17" s="20" t="s"/>
+      <x:c r="G17" s="20" t="s"/>
+      <x:c r="H17" s="21" t="s"/>
       <x:c r="I17" s="70" t="s"/>
       <x:c r="J17" s="70" t="s"/>
       <x:c r="K17" s="70" t="s"/>
@@ -2069,14 +2090,14 @@
       <x:c r="M17" s="71" t="s"/>
     </x:row>
     <x:row r="18" spans="1:1025" s="65" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
-      <x:c r="A18" s="88" t="s"/>
-      <x:c r="B18" s="89" t="s"/>
-      <x:c r="C18" s="89" t="s"/>
-      <x:c r="D18" s="89" t="s"/>
-      <x:c r="E18" s="89" t="s"/>
-      <x:c r="F18" s="90" t="s"/>
-      <x:c r="G18" s="90" t="s"/>
-      <x:c r="H18" s="91" t="s"/>
+      <x:c r="A18" s="92" t="s"/>
+      <x:c r="B18" s="93" t="s"/>
+      <x:c r="C18" s="93" t="s"/>
+      <x:c r="D18" s="93" t="s"/>
+      <x:c r="E18" s="93" t="s"/>
+      <x:c r="F18" s="94" t="s"/>
+      <x:c r="G18" s="94" t="s"/>
+      <x:c r="H18" s="95" t="s"/>
       <x:c r="I18" s="70" t="s"/>
       <x:c r="J18" s="70" t="s"/>
       <x:c r="K18" s="70" t="s"/>
@@ -2099,11 +2120,11 @@
       <x:c r="M19" s="71" t="s"/>
     </x:row>
     <x:row r="20" spans="1:1025" s="65" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
-      <x:c r="A20" s="92" t="s">
+      <x:c r="A20" s="96" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="B20" s="73" t="n">
-        <x:v>36</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C20" s="73" t="s"/>
       <x:c r="D20" s="73" t="s"/>
@@ -2122,7 +2143,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B21" s="76" t="n">
-        <x:v>15</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C21" s="76" t="s"/>
       <x:c r="D21" s="76" t="s"/>
@@ -2137,11 +2158,11 @@
       <x:c r="M21" s="77" t="s"/>
     </x:row>
     <x:row r="22" spans="1:1025" s="65" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
-      <x:c r="A22" s="92" t="s">
+      <x:c r="A22" s="96" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="B22" s="73" t="n">
-        <x:v>58.33</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="C22" s="73" t="s"/>
       <x:c r="D22" s="73" t="s"/>
@@ -2171,21 +2192,21 @@
       <x:c r="M23" s="71" t="s"/>
     </x:row>
     <x:row r="24" spans="1:1025" s="65" customFormat="1" ht="19.4" customHeight="1" outlineLevel="0">
-      <x:c r="A24" s="93" t="s">
+      <x:c r="A24" s="97" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="B24" s="94" t="s"/>
-      <x:c r="C24" s="94" t="s"/>
-      <x:c r="D24" s="94" t="s"/>
-      <x:c r="E24" s="94" t="s"/>
-      <x:c r="F24" s="94" t="s"/>
-      <x:c r="G24" s="94" t="s"/>
-      <x:c r="H24" s="94" t="s"/>
-      <x:c r="I24" s="94" t="s"/>
-      <x:c r="J24" s="94" t="s"/>
-      <x:c r="K24" s="94" t="s"/>
-      <x:c r="L24" s="94" t="s"/>
-      <x:c r="M24" s="95" t="s"/>
+      <x:c r="B24" s="98" t="s"/>
+      <x:c r="C24" s="98" t="s"/>
+      <x:c r="D24" s="98" t="s"/>
+      <x:c r="E24" s="98" t="s"/>
+      <x:c r="F24" s="98" t="s"/>
+      <x:c r="G24" s="98" t="s"/>
+      <x:c r="H24" s="98" t="s"/>
+      <x:c r="I24" s="98" t="s"/>
+      <x:c r="J24" s="98" t="s"/>
+      <x:c r="K24" s="98" t="s"/>
+      <x:c r="L24" s="98" t="s"/>
+      <x:c r="M24" s="99" t="s"/>
     </x:row>
     <x:row r="25" spans="1:1025" s="65" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
       <x:c r="A25" s="69" t="s"/>
@@ -2203,279 +2224,279 @@
       <x:c r="M25" s="71" t="s"/>
     </x:row>
     <x:row r="26" spans="1:1025" s="65" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
-      <x:c r="A26" s="96" t="s">
+      <x:c r="A26" s="100" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="B26" s="97" t="s">
+      <x:c r="B26" s="101" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="C26" s="98" t="s">
+      <x:c r="C26" s="102" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="D26" s="99" t="s"/>
-      <x:c r="E26" s="98" t="s">
+      <x:c r="D26" s="103" t="s"/>
+      <x:c r="E26" s="102" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="F26" s="99" t="s"/>
-      <x:c r="G26" s="98" t="s">
+      <x:c r="F26" s="103" t="s"/>
+      <x:c r="G26" s="102" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="H26" s="100" t="s"/>
-      <x:c r="I26" s="101" t="s"/>
-      <x:c r="J26" s="102" t="s">
+      <x:c r="H26" s="104" t="s"/>
+      <x:c r="I26" s="105" t="s"/>
+      <x:c r="J26" s="106" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="K26" s="103" t="s"/>
-      <x:c r="L26" s="100" t="s"/>
+      <x:c r="K26" s="107" t="s"/>
+      <x:c r="L26" s="104" t="s"/>
       <x:c r="M26" s="71" t="s"/>
     </x:row>
     <x:row r="27" spans="1:1025" s="65" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
-      <x:c r="A27" s="104" t="s"/>
-      <x:c r="B27" s="105" t="s"/>
-      <x:c r="C27" s="106" t="s">
+      <x:c r="A27" s="108" t="s"/>
+      <x:c r="B27" s="109" t="s"/>
+      <x:c r="C27" s="110" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="D27" s="106" t="s">
+      <x:c r="D27" s="110" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="E27" s="106" t="s">
+      <x:c r="E27" s="110" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="F27" s="106" t="s">
+      <x:c r="F27" s="110" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="G27" s="106" t="s">
+      <x:c r="G27" s="110" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="H27" s="107" t="s">
+      <x:c r="H27" s="111" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="I27" s="108" t="s"/>
-      <x:c r="J27" s="109" t="s">
+      <x:c r="I27" s="112" t="s"/>
+      <x:c r="J27" s="113" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="K27" s="110" t="s">
+      <x:c r="K27" s="114" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="L27" s="111" t="s">
+      <x:c r="L27" s="115" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="M27" s="71" t="s"/>
     </x:row>
     <x:row r="28" spans="1:1025" s="65" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
-      <x:c r="A28" s="112" t="s">
+      <x:c r="A28" s="116" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="B28" s="18" t="n">
+      <x:c r="B28" s="20" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C28" s="44" t="n">
+      <x:c r="C28" s="46" t="n">
         <x:v>27.6</x:v>
       </x:c>
-      <x:c r="D28" s="44" t="n">
+      <x:c r="D28" s="46" t="n">
         <x:v>4.7</x:v>
       </x:c>
-      <x:c r="E28" s="44" t="n">
+      <x:c r="E28" s="46" t="n">
         <x:v>8.5</x:v>
       </x:c>
-      <x:c r="F28" s="44" t="n">
+      <x:c r="F28" s="46" t="n">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G28" s="44" t="n">
+      <x:c r="G28" s="46" t="n">
         <x:v>61.8</x:v>
       </x:c>
-      <x:c r="H28" s="45" t="n">
+      <x:c r="H28" s="47" t="n">
         <x:v>15.2</x:v>
       </x:c>
-      <x:c r="I28" s="113" t="s"/>
-      <x:c r="J28" s="47" t="n">
+      <x:c r="I28" s="117" t="s"/>
+      <x:c r="J28" s="49" t="n">
         <x:f>F13</x:f>
       </x:c>
-      <x:c r="K28" s="48" t="n">
+      <x:c r="K28" s="50" t="n">
         <x:f>G13</x:f>
       </x:c>
-      <x:c r="L28" s="49" t="n">
+      <x:c r="L28" s="21" t="n">
         <x:f>H13</x:f>
       </x:c>
       <x:c r="M28" s="71" t="s"/>
     </x:row>
     <x:row r="29" spans="1:1025" s="65" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
-      <x:c r="A29" s="114" t="s"/>
-      <x:c r="B29" s="86" t="n">
+      <x:c r="A29" s="118" t="s"/>
+      <x:c r="B29" s="90" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C29" s="115" t="n">
+      <x:c r="C29" s="119" t="n">
         <x:v>19.4</x:v>
       </x:c>
-      <x:c r="D29" s="115" t="n">
+      <x:c r="D29" s="119" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="E29" s="115" t="n">
+      <x:c r="E29" s="119" t="n">
         <x:v>7.3</x:v>
       </x:c>
-      <x:c r="F29" s="115" t="n">
+      <x:c r="F29" s="119" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="G29" s="115" t="n">
+      <x:c r="G29" s="119" t="n">
         <x:v>64.9</x:v>
       </x:c>
-      <x:c r="H29" s="116" t="n">
+      <x:c r="H29" s="120" t="n">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="I29" s="113" t="s"/>
-      <x:c r="J29" s="117" t="n">
+      <x:c r="I29" s="117" t="s"/>
+      <x:c r="J29" s="121" t="n">
         <x:f>F14</x:f>
       </x:c>
-      <x:c r="K29" s="118" t="n">
+      <x:c r="K29" s="122" t="n">
         <x:f>G14</x:f>
       </x:c>
-      <x:c r="L29" s="119" t="n">
+      <x:c r="L29" s="91" t="n">
         <x:f>H14</x:f>
       </x:c>
       <x:c r="M29" s="71" t="s"/>
     </x:row>
     <x:row r="30" spans="1:1025" s="65" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
-      <x:c r="A30" s="114" t="s"/>
-      <x:c r="B30" s="18" t="n">
+      <x:c r="A30" s="118" t="s"/>
+      <x:c r="B30" s="20" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C30" s="44" t="n">
+      <x:c r="C30" s="46" t="n">
         <x:v>17.6</x:v>
       </x:c>
-      <x:c r="D30" s="44" t="n">
+      <x:c r="D30" s="46" t="n">
         <x:v>4.8</x:v>
       </x:c>
-      <x:c r="E30" s="44" t="n">
+      <x:c r="E30" s="46" t="n">
         <x:v>4.8</x:v>
       </x:c>
-      <x:c r="F30" s="44" t="n">
+      <x:c r="F30" s="46" t="n">
         <x:v>3.9</x:v>
       </x:c>
-      <x:c r="G30" s="44" t="n">
+      <x:c r="G30" s="46" t="n">
         <x:v>74.6</x:v>
       </x:c>
-      <x:c r="H30" s="45" t="n">
+      <x:c r="H30" s="47" t="n">
         <x:v>15.5</x:v>
       </x:c>
-      <x:c r="I30" s="113" t="s"/>
-      <x:c r="J30" s="47" t="n">
+      <x:c r="I30" s="117" t="s"/>
+      <x:c r="J30" s="49" t="n">
         <x:f>F15</x:f>
       </x:c>
-      <x:c r="K30" s="48" t="n">
+      <x:c r="K30" s="50" t="n">
         <x:f>G15</x:f>
       </x:c>
-      <x:c r="L30" s="49" t="n">
+      <x:c r="L30" s="21" t="n">
         <x:f>H15</x:f>
       </x:c>
       <x:c r="M30" s="71" t="s"/>
     </x:row>
     <x:row r="31" spans="1:1025" s="65" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
-      <x:c r="A31" s="114" t="s"/>
-      <x:c r="B31" s="86" t="n">
+      <x:c r="A31" s="118" t="s"/>
+      <x:c r="B31" s="90" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C31" s="115" t="n">
+      <x:c r="C31" s="119" t="n">
         <x:v>15.2</x:v>
       </x:c>
-      <x:c r="D31" s="115" t="n">
+      <x:c r="D31" s="119" t="n">
         <x:v>2.3</x:v>
       </x:c>
-      <x:c r="E31" s="115" t="n">
+      <x:c r="E31" s="119" t="n">
         <x:v>3.2</x:v>
       </x:c>
-      <x:c r="F31" s="115" t="n">
+      <x:c r="F31" s="119" t="n">
         <x:v>2.3</x:v>
       </x:c>
-      <x:c r="G31" s="115" t="n">
+      <x:c r="G31" s="119" t="n">
         <x:v>80.9</x:v>
       </x:c>
-      <x:c r="H31" s="116" t="n">
+      <x:c r="H31" s="120" t="n">
         <x:v>11.8</x:v>
       </x:c>
-      <x:c r="I31" s="113" t="s"/>
-      <x:c r="J31" s="117" t="n">
+      <x:c r="I31" s="117" t="s"/>
+      <x:c r="J31" s="121" t="n">
         <x:f>F16</x:f>
       </x:c>
-      <x:c r="K31" s="118" t="n">
+      <x:c r="K31" s="122" t="n">
         <x:f>G16</x:f>
       </x:c>
-      <x:c r="L31" s="119" t="n">
+      <x:c r="L31" s="91" t="n">
         <x:f>H16</x:f>
       </x:c>
       <x:c r="M31" s="71" t="s"/>
     </x:row>
     <x:row r="32" spans="1:1025" s="65" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
-      <x:c r="A32" s="114" t="s"/>
-      <x:c r="B32" s="18" t="n">
+      <x:c r="A32" s="118" t="s"/>
+      <x:c r="B32" s="20" t="n">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="C32" s="44" t="n">
+      <x:c r="C32" s="46" t="n">
         <x:v>14.4</x:v>
       </x:c>
-      <x:c r="D32" s="44" t="n">
+      <x:c r="D32" s="46" t="n">
         <x:v>1.9</x:v>
       </x:c>
-      <x:c r="E32" s="44" t="n">
+      <x:c r="E32" s="46" t="n">
         <x:v>2.4</x:v>
       </x:c>
-      <x:c r="F32" s="44" t="n">
+      <x:c r="F32" s="46" t="n">
         <x:v>1.9</x:v>
       </x:c>
-      <x:c r="G32" s="44" t="n">
+      <x:c r="G32" s="46" t="n">
         <x:v>84.9</x:v>
       </x:c>
-      <x:c r="H32" s="45" t="n">
+      <x:c r="H32" s="47" t="n">
         <x:v>10.4</x:v>
       </x:c>
-      <x:c r="I32" s="113" t="s"/>
-      <x:c r="J32" s="47" t="n">
+      <x:c r="I32" s="117" t="s"/>
+      <x:c r="J32" s="49" t="n">
         <x:f>F17</x:f>
       </x:c>
-      <x:c r="K32" s="48" t="n">
+      <x:c r="K32" s="50" t="n">
         <x:f>G17</x:f>
       </x:c>
-      <x:c r="L32" s="49" t="n">
+      <x:c r="L32" s="21" t="n">
         <x:f>H17</x:f>
       </x:c>
       <x:c r="M32" s="71" t="s"/>
     </x:row>
     <x:row r="33" spans="1:1025" s="65" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
-      <x:c r="A33" s="114" t="s"/>
-      <x:c r="B33" s="86" t="n">
+      <x:c r="A33" s="118" t="s"/>
+      <x:c r="B33" s="90" t="n">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C33" s="115" t="n">
+      <x:c r="C33" s="119" t="n">
         <x:v>14.1</x:v>
       </x:c>
-      <x:c r="D33" s="115" t="n">
+      <x:c r="D33" s="119" t="n">
         <x:v>1.5</x:v>
       </x:c>
-      <x:c r="E33" s="115" t="n">
+      <x:c r="E33" s="119" t="n">
         <x:v>2.1</x:v>
       </x:c>
-      <x:c r="F33" s="115" t="n">
+      <x:c r="F33" s="119" t="n">
         <x:v>1.5</x:v>
       </x:c>
-      <x:c r="G33" s="115" t="n">
+      <x:c r="G33" s="119" t="n">
         <x:v>86.3</x:v>
       </x:c>
-      <x:c r="H33" s="116" t="n">
+      <x:c r="H33" s="120" t="n">
         <x:v>8.6</x:v>
       </x:c>
-      <x:c r="I33" s="113" t="s"/>
-      <x:c r="J33" s="117" t="n">
+      <x:c r="I33" s="117" t="s"/>
+      <x:c r="J33" s="121" t="n">
         <x:f>F18</x:f>
       </x:c>
-      <x:c r="K33" s="118" t="n">
+      <x:c r="K33" s="122" t="n">
         <x:f>G18</x:f>
       </x:c>
-      <x:c r="L33" s="119" t="n">
+      <x:c r="L33" s="91" t="n">
         <x:f>H18</x:f>
       </x:c>
       <x:c r="M33" s="71" t="s"/>
     </x:row>
     <x:row r="34" spans="1:1025" s="65" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
-      <x:c r="A34" s="120" t="s"/>
+      <x:c r="A34" s="123" t="s"/>
       <x:c r="B34" s="55" t="s">
         <x:v>34</x:v>
       </x:c>
@@ -2497,7 +2518,7 @@
       <x:c r="H34" s="57" t="n">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="I34" s="113" t="s"/>
+      <x:c r="I34" s="117" t="s"/>
       <x:c r="J34" s="59" t="n">
         <x:f>B20</x:f>
       </x:c>
@@ -2510,19 +2531,19 @@
       <x:c r="M34" s="71" t="s"/>
     </x:row>
     <x:row r="35" spans="1:1025" s="65" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
-      <x:c r="A35" s="121" t="s"/>
-      <x:c r="B35" s="122" t="s"/>
-      <x:c r="C35" s="122" t="s"/>
-      <x:c r="D35" s="122" t="s"/>
-      <x:c r="E35" s="122" t="s"/>
-      <x:c r="F35" s="122" t="s"/>
-      <x:c r="G35" s="122" t="s"/>
-      <x:c r="H35" s="122" t="s"/>
-      <x:c r="I35" s="122" t="s"/>
-      <x:c r="J35" s="122" t="s"/>
-      <x:c r="K35" s="122" t="s"/>
-      <x:c r="L35" s="122" t="s"/>
-      <x:c r="M35" s="123" t="s"/>
+      <x:c r="A35" s="124" t="s"/>
+      <x:c r="B35" s="125" t="s"/>
+      <x:c r="C35" s="125" t="s"/>
+      <x:c r="D35" s="125" t="s"/>
+      <x:c r="E35" s="125" t="s"/>
+      <x:c r="F35" s="125" t="s"/>
+      <x:c r="G35" s="125" t="s"/>
+      <x:c r="H35" s="125" t="s"/>
+      <x:c r="I35" s="125" t="s"/>
+      <x:c r="J35" s="125" t="s"/>
+      <x:c r="K35" s="125" t="s"/>
+      <x:c r="L35" s="125" t="s"/>
+      <x:c r="M35" s="126" t="s"/>
     </x:row>
     <x:row r="36" spans="1:1025" s="65" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0"/>
     <x:row r="1048576" spans="1:1025" s="65" customFormat="1" ht="12.8" customHeight="1" outlineLevel="0"/>
